--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-6000" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6002" sheetId="3" r:id="rId3"/>
+    <sheet name="strategy_id-6081" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>subsector</t>
   </si>
@@ -2205,279 +2204,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="X2">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="Y2">
-        <v>0.9347826086956521</v>
-      </c>
-      <c r="Z2">
-        <v>0.9130434782608696</v>
-      </c>
-      <c r="AA2">
-        <v>0.891304347826087</v>
-      </c>
-      <c r="AB2">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="AC2">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="AD2">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="AE2">
-        <v>0.8043478260869565</v>
-      </c>
-      <c r="AF2">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="AG2">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="AH2">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AI2">
-        <v>0.7173913043478262</v>
-      </c>
-      <c r="AJ2">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AK2">
-        <v>0.6739130434782609</v>
-      </c>
-      <c r="AL2">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="AM2">
-        <v>0.6304347826086957</v>
-      </c>
-      <c r="AN2">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AO2">
-        <v>0.5869565217391304</v>
-      </c>
-      <c r="AP2">
-        <v>0.5652173913043479</v>
-      </c>
-      <c r="AQ2">
-        <v>0.5434782608695652</v>
-      </c>
-      <c r="AR2">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AS2">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>